--- a/biology/Botanique/Agarum_clathratum/Agarum_clathratum.xlsx
+++ b/biology/Botanique/Agarum_clathratum/Agarum_clathratum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agarum clathratum, aussi connu sous le nom de Laminaire criblée[1], est une espèce d'algues brunes de la famille des Costariaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agarum clathratum, aussi connu sous le nom de Laminaire criblée, est une espèce d'algues brunes de la famille des Costariaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Agarum est dérivé de agar-agar，mot de langue malaise qui fait référence à certaines algues rouges (Rhodophycées), et secondairement à la nourriture gélatineuse qui en est extraite. Mais l'histoire du genre Agarum attribua finalement ce nom à des algues brunes (Phéophycées).
 L'épithète spécifique clathratum vient du latin clatratus, « fermé par un grillage ou par des barreaux », en référence à la fronde de l'algue ressemblant à un grillage.
@@ -543,7 +557,9 @@
           <t>Histoire du taxon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce connait plusieurs synonymes, non valides : Agarum cribrosum Bory, Agarum gmelinii Postels et Ruprecht et Agarum turneri Postels et Ruprecht.
 </t>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette algue brune est l'une des seules espèces d'algues macrophytes pouvant faire face au broutage d'oursins en zone où ces échinodermes sont en forte concentration[2]. Cette capacité à résister au broutage permet à Agarum clathratum de coloniser l'espace situé au-delà de la ceinture des laminaires[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette algue brune est l'une des seules espèces d'algues macrophytes pouvant faire face au broutage d'oursins en zone où ces échinodermes sont en forte concentration. Cette capacité à résister au broutage permet à Agarum clathratum de coloniser l'espace situé au-delà de la ceinture des laminaires.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (31 oct. 2012)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (31 oct. 2012) :
 sous-espèce Agarum clathratum yakishiriense Yamada ex G.H.Boo &amp; P.C.Silva, 2011</t>
         </is>
       </c>
